--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -5,18 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\WEB3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E935B-9AFC-4F50-8911-B042DC70EEBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB9722-74FF-4753-B3D6-D43DAD91E926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concerns" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">concerns!$A$1:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">concerns!$A$1:$Q$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">concerns!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="321">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1672,6 +1672,10 @@
    : 사업수행능력 240점 (절대평가)
    : 사업계획능력 260점 (상대평가)
  - 단독접수시에도 평가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성 호텔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2293,11 +2297,11 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2375,27 +2379,15 @@
     </row>
     <row r="2" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>25</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>305</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>310</v>
-      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="32" t="s">
         <v>28</v>
       </c>
@@ -2403,26 +2395,14 @@
         <v>311</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>319</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="27" t="s">
         <v>318</v>
       </c>
@@ -2430,285 +2410,284 @@
     </row>
     <row r="3" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11" t="s">
-        <v>293</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>308</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="I3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>280</v>
+        <v>292</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>283</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14"/>
       <c r="I4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>289</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K6" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L6" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>21</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N6" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q7" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R7" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="8" spans="1:20" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="R7" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>19</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>28</v>
@@ -2720,175 +2699,175 @@
         <v>232</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="R8" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K9" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O9" s="18">
         <v>325742</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="Q8" s="16" t="s">
+      <c r="Q9" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R9" s="27" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>18</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>211</v>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>214</v>
+        <v>91</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>207</v>
+        <v>123</v>
+      </c>
+      <c r="R10" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>28</v>
@@ -2900,110 +2879,110 @@
         <v>28</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>50</v>
+        <v>218</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>28</v>
+      <c r="D13" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
+        <v>191</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>28</v>
@@ -3012,39 +2991,39 @@
         <v>28</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>28</v>
@@ -3053,10 +3032,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>28</v>
@@ -3067,150 +3046,150 @@
       <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>81</v>
+      <c r="J14" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="O14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>178</v>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>205</v>
+        <v>85</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>28</v>
@@ -3219,66 +3198,66 @@
         <v>179</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>28</v>
+        <v>195</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>277</v>
+        <v>93</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>100</v>
+      <c r="N17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
+      <c r="D18" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>28</v>
@@ -3286,43 +3265,43 @@
       <c r="H18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>28</v>
+      <c r="I18" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>28</v>
+      <c r="N18" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>28</v>
@@ -3331,10 +3310,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>28</v>
@@ -3342,264 +3321,264 @@
       <c r="H19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="24" t="s">
-        <v>252</v>
+      <c r="I19" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="O19" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>13</v>
+        <v>252</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>187</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O21" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="10" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>146</v>
+        <v>203</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="O23" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>171</v>
@@ -3623,22 +3602,22 @@
         <v>204</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O24" s="18" t="s">
         <v>3</v>
@@ -3647,15 +3626,15 @@
         <v>45</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>171</v>
@@ -3669,8 +3648,8 @@
       <c r="E25" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>148</v>
+      <c r="F25" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>166</v>
@@ -3679,22 +3658,22 @@
         <v>204</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O25" s="18" t="s">
         <v>3</v>
@@ -3703,71 +3682,124 @@
         <v>45</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="D26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I27" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K27" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N27" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O27" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="P27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q26" s="16" t="s">
+      <c r="Q27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="R26" s="7" t="s">
+      <c r="R27" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="25"/>
-    </row>
-    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="4"/>
+    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="25"/>
     </row>
     <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J32" s="4"/>
@@ -3775,45 +3807,49 @@
     <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="4"/>
     </row>
+    <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R12" r:id="rId1" xr:uid="{8749754C-D06F-4182-9015-1706BD09C6E9}"/>
-    <hyperlink ref="R11" r:id="rId2" xr:uid="{393D85B4-37A2-4A65-A4E1-992051B2074A}"/>
-    <hyperlink ref="R14" r:id="rId3" xr:uid="{47250226-B039-4086-B943-BCA7118AFBFF}"/>
-    <hyperlink ref="R16" r:id="rId4" xr:uid="{F84835D5-37D5-46F7-8C98-D3091865206D}"/>
-    <hyperlink ref="R17" r:id="rId5" xr:uid="{D165C3A4-15C8-4BB2-B26E-E52A8CC43A2B}"/>
-    <hyperlink ref="R18" r:id="rId6" xr:uid="{99F963AF-FA6E-48B3-8334-5F689AFB1BE1}"/>
-    <hyperlink ref="R19" r:id="rId7" xr:uid="{E6E8869D-B14E-4062-A0B9-C9B3DD4DECB5}"/>
-    <hyperlink ref="R13" r:id="rId8" xr:uid="{F6A9A873-1427-427F-8023-3E0D9AD52A72}"/>
-    <hyperlink ref="R21" r:id="rId9" xr:uid="{92AF6F52-1633-4D03-9E58-E95225B23CDE}"/>
-    <hyperlink ref="R15" r:id="rId10" xr:uid="{41B2504C-B510-43D6-A55D-18D4ABC04227}"/>
-    <hyperlink ref="R22" r:id="rId11" xr:uid="{9F3872E6-FA31-41A2-B24F-5EC08434648B}"/>
-    <hyperlink ref="R20" r:id="rId12" xr:uid="{26263C87-1504-4466-A46A-E62F7FAB6CA0}"/>
-    <hyperlink ref="R25" r:id="rId13" xr:uid="{1322ED43-DB66-4CDF-AAE4-7356999B9D7F}"/>
-    <hyperlink ref="R23" r:id="rId14" xr:uid="{1B761EDE-D72D-4D85-9E23-02E08A3321B7}"/>
-    <hyperlink ref="R24" r:id="rId15" xr:uid="{48D2F627-24D2-497C-AACE-0E7D829FDFF4}"/>
-    <hyperlink ref="R26" r:id="rId16" xr:uid="{A460BCC4-AE3D-4F0B-AC44-4B0027D8E9D7}"/>
-    <hyperlink ref="R10" r:id="rId17" xr:uid="{F5D075A0-0131-4788-B696-D7BF3D5B7CB4}"/>
-    <hyperlink ref="R8" r:id="rId18" xr:uid="{06B3A888-408C-46F2-9C7B-5A1B3AA7B236}"/>
-    <hyperlink ref="R9" r:id="rId19" xr:uid="{1F4594C3-ABD0-43A4-983E-4B0C6A5FDDD2}"/>
-    <hyperlink ref="R6" r:id="rId20" xr:uid="{3572083B-1896-48FE-8F4D-1E07D6DB2728}"/>
-    <hyperlink ref="R5" r:id="rId21" xr:uid="{D2259783-70F5-4E97-88EC-B7935D282CFB}"/>
-    <hyperlink ref="R7" r:id="rId22" xr:uid="{2C37FEC1-19FD-4D8C-982C-AD3E8A810220}"/>
-    <hyperlink ref="R4" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
-    <hyperlink ref="R3" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
-    <hyperlink ref="R2" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
+    <hyperlink ref="R13" r:id="rId1" xr:uid="{8749754C-D06F-4182-9015-1706BD09C6E9}"/>
+    <hyperlink ref="R12" r:id="rId2" xr:uid="{393D85B4-37A2-4A65-A4E1-992051B2074A}"/>
+    <hyperlink ref="R15" r:id="rId3" xr:uid="{47250226-B039-4086-B943-BCA7118AFBFF}"/>
+    <hyperlink ref="R17" r:id="rId4" xr:uid="{F84835D5-37D5-46F7-8C98-D3091865206D}"/>
+    <hyperlink ref="R18" r:id="rId5" xr:uid="{D165C3A4-15C8-4BB2-B26E-E52A8CC43A2B}"/>
+    <hyperlink ref="R19" r:id="rId6" xr:uid="{99F963AF-FA6E-48B3-8334-5F689AFB1BE1}"/>
+    <hyperlink ref="R20" r:id="rId7" xr:uid="{E6E8869D-B14E-4062-A0B9-C9B3DD4DECB5}"/>
+    <hyperlink ref="R14" r:id="rId8" xr:uid="{F6A9A873-1427-427F-8023-3E0D9AD52A72}"/>
+    <hyperlink ref="R22" r:id="rId9" xr:uid="{92AF6F52-1633-4D03-9E58-E95225B23CDE}"/>
+    <hyperlink ref="R16" r:id="rId10" xr:uid="{41B2504C-B510-43D6-A55D-18D4ABC04227}"/>
+    <hyperlink ref="R23" r:id="rId11" xr:uid="{9F3872E6-FA31-41A2-B24F-5EC08434648B}"/>
+    <hyperlink ref="R21" r:id="rId12" xr:uid="{26263C87-1504-4466-A46A-E62F7FAB6CA0}"/>
+    <hyperlink ref="R26" r:id="rId13" xr:uid="{1322ED43-DB66-4CDF-AAE4-7356999B9D7F}"/>
+    <hyperlink ref="R24" r:id="rId14" xr:uid="{1B761EDE-D72D-4D85-9E23-02E08A3321B7}"/>
+    <hyperlink ref="R25" r:id="rId15" xr:uid="{48D2F627-24D2-497C-AACE-0E7D829FDFF4}"/>
+    <hyperlink ref="R27" r:id="rId16" xr:uid="{A460BCC4-AE3D-4F0B-AC44-4B0027D8E9D7}"/>
+    <hyperlink ref="R11" r:id="rId17" xr:uid="{F5D075A0-0131-4788-B696-D7BF3D5B7CB4}"/>
+    <hyperlink ref="R9" r:id="rId18" xr:uid="{06B3A888-408C-46F2-9C7B-5A1B3AA7B236}"/>
+    <hyperlink ref="R10" r:id="rId19" xr:uid="{1F4594C3-ABD0-43A4-983E-4B0C6A5FDDD2}"/>
+    <hyperlink ref="R7" r:id="rId20" xr:uid="{3572083B-1896-48FE-8F4D-1E07D6DB2728}"/>
+    <hyperlink ref="R6" r:id="rId21" xr:uid="{D2259783-70F5-4E97-88EC-B7935D282CFB}"/>
+    <hyperlink ref="R8" r:id="rId22" xr:uid="{2C37FEC1-19FD-4D8C-982C-AD3E8A810220}"/>
+    <hyperlink ref="R5" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
+    <hyperlink ref="R4" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
+    <hyperlink ref="R3" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
+    <hyperlink ref="R2" r:id="rId26" xr:uid="{5D876219-1C1F-47C4-973A-DE1618A65F42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId26"/>
+  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,굵게"&amp;20    개발사업공고_LIST (&amp;P / &amp;N)</oddHeader>
     <oddFooter>&amp;C&amp;G&amp;"-,굵게"&amp;K03+000 &amp;16토목사업팀</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="O1:P1 B1 K21 H1 O20:O25 K1 F1 E20 F20:F24 C25 C21 C23 C24" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:P1 B1 K22 H1 O21:O26 K1 F1 E21 F21:F25 C26 C22 C24 C25" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawingHF r:id="rId27"/>
+  <legacyDrawingHF r:id="rId28"/>
 </worksheet>
 </file>
--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEB9722-74FF-4753-B3D6-D43DAD91E926}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFA9C3-B288-4F78-83A6-2E418A5A9915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="332">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1675,7 +1675,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보성 호텔</t>
+    <t>21-12-24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-4-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-12-29~30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성 율포 해수욕장 내 호텔부지 매각을 위한 개발계획 공모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보성군 공고 제2021-1507호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전라남도 보성군 회천면 동율리 829</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  본 사업의 추진방식은 사업시행자가 보성군으로부터 토지를 매입한 후 사업시행자의 책임 하에 자기자본 또는 타인자본을 조달하여 시설물의 설계, 인·허가, 시공,  운영하는 방식으로 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 사 업 명 : 보성 율포 해수욕장 내 호텔부지 매각을 위한 개발계획 공모사업
+2. 사업위치 : 전라남도 보성군 회천면 동율리 829
+  가. 용지면적 : 1필지, 4,467.9㎡
+  나. 토지감정가격 : 금2,059,702천원
+  다. 지정용도 : 숙박시설(건축법 시행령 별표1의  제15호 숙박시설)
+  라. 건폐율/ 용적률 : 건폐율 60% / 용적률 200% (10층이하)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?idx=27211&amp;mode=view#none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-5-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지원 / 061-850-5231문화관광과
+  1. 주소 : 전라남도 보성군 보성읍 송재로 165
+  2. 홈페이지 주소 : www.boseong.go.kr
+  3. 전화 : 061-850-5231
+  4. E-mail : gsim0128@korea.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발계획 170점
+재무계획 130점
+사업수행능력 200점
+제안평가 500점
+가격평가 100점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2299,9 +2356,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2381,30 +2438,48 @@
       <c r="A2" s="5">
         <v>26</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>320</v>
+      </c>
       <c r="C2" s="11"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>321</v>
+      </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>329</v>
+      </c>
       <c r="I2" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="16"/>
+        <v>323</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>327</v>
+      </c>
       <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="P2" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="R2" s="27" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="T2" s="31"/>
     </row>
@@ -3838,7 +3913,7 @@
     <hyperlink ref="R5" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
     <hyperlink ref="R4" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
     <hyperlink ref="R3" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
-    <hyperlink ref="R2" r:id="rId26" xr:uid="{5D876219-1C1F-47C4-973A-DE1618A65F42}"/>
+    <hyperlink ref="R2" r:id="rId26" display="https://www.jecheon.go.kr/www/selectBbsNttView.do?key=5233&amp;id=&amp;&amp;bbsNo=18&amp;nttNo=317423&amp;searchCtgry=&amp;searchCnd=&amp;searchKrwd=&amp;pageIndex=1&amp;integrDeptCode=" xr:uid="{5D876219-1C1F-47C4-973A-DE1618A65F42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFA9C3-B288-4F78-83A6-2E418A5A9915}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F1F26-BDC4-42BB-80CB-0CCF7490EB00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concerns" sheetId="1" r:id="rId1"/>
@@ -2356,9 +2356,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31F1F26-BDC4-42BB-80CB-0CCF7490EB00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B0519-7D19-4B2F-9A0B-DCB7E1B95791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="331">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1709,10 +1709,6 @@
   나. 토지감정가격 : 금2,059,702천원
   다. 지정용도 : 숙박시설(건축법 시행령 별표1의  제15호 숙박시설)
   라. 건폐율/ 용적률 : 건폐율 60% / 용적률 200% (10층이하)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?idx=27211&amp;mode=view#none</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2356,9 +2352,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2451,7 +2447,7 @@
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>28</v>
@@ -2473,14 +2469,12 @@
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="Q2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>328</v>
-      </c>
+      <c r="R2" s="27"/>
       <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,11 +3907,10 @@
     <hyperlink ref="R5" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
     <hyperlink ref="R4" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
     <hyperlink ref="R3" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
-    <hyperlink ref="R2" r:id="rId26" display="https://www.jecheon.go.kr/www/selectBbsNttView.do?key=5233&amp;id=&amp;&amp;bbsNo=18&amp;nttNo=317423&amp;searchCtgry=&amp;searchCnd=&amp;searchKrwd=&amp;pageIndex=1&amp;integrDeptCode=" xr:uid="{5D876219-1C1F-47C4-973A-DE1618A65F42}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId27"/>
+  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId26"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,굵게"&amp;20    개발사업공고_LIST (&amp;P / &amp;N)</oddHeader>
     <oddFooter>&amp;C&amp;G&amp;"-,굵게"&amp;K03+000 &amp;16토목사업팀</oddFooter>
@@ -3925,6 +3918,6 @@
   <ignoredErrors>
     <ignoredError sqref="O1:P1 B1 K22 H1 O21:O26 K1 F1 E21 F21:F25 C26 C22 C24 C25" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawingHF r:id="rId28"/>
+  <legacyDrawingHF r:id="rId27"/>
 </worksheet>
 </file>
--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B0519-7D19-4B2F-9A0B-DCB7E1B95791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491886A-D5C4-443C-B832-3076A4FFF2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="332">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1729,6 +1729,11 @@
 사업수행능력 200점
 제안평가 500점
 가격평가 100점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 사업신청자는 본 사업을 수행할 능력이 있는 법인 또는 설립예정법인(컨소시엄으로서 우선협상대상자 선정 후 사업법인을 설립하는 경우에 한함)으로서 단독 또는 컨소시엄 형태로 신청이 가능하며, 사업신청은 법인명의(컨소시엄의 경우 대표법인 명의)로 하여야 한다.  
+  - 공고일 현재 입찰참가자격이 제한 또는 정지·상실된 자(법인), 부도·파산처리 된 자(법인)는 본 사업에 참여할 수 없으며, 컨소시엄 구성원 또한 될 수 없다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2352,9 +2357,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2467,7 +2472,9 @@
       <c r="N2" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="P2" s="16" t="s">
         <v>329</v>
       </c>

--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491886A-D5C4-443C-B832-3076A4FFF2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFFF47-4684-46C6-BFA3-80054F628F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concerns" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="333">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1734,6 +1734,10 @@
   <si>
     <t xml:space="preserve">  - 사업신청자는 본 사업을 수행할 능력이 있는 법인 또는 설립예정법인(컨소시엄으로서 우선협상대상자 선정 후 사업법인을 설립하는 경우에 한함)으로서 단독 또는 컨소시엄 형태로 신청이 가능하며, 사업신청은 법인명의(컨소시엄의 경우 대표법인 명의)로 하여야 한다.  
   - 공고일 현재 입찰참가자격이 제한 또는 정지·상실된 자(법인), 부도·파산처리 된 자(법인)는 본 사업에 참여할 수 없으며, 컨소시엄 구성원 또한 될 수 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?idx=27211&amp;mode=view</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2357,9 +2361,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="O1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2481,7 +2485,9 @@
       <c r="Q2" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="R2" s="27"/>
+      <c r="R2" s="27" t="s">
+        <v>332</v>
+      </c>
       <c r="T2" s="31"/>
     </row>
     <row r="3" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">

--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AFFF47-4684-46C6-BFA3-80054F628F14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121DD4A-9578-4FD0-A501-3618B1D2E52A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,12 +1732,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 사업신청자는 본 사업을 수행할 능력이 있는 법인 또는 설립예정법인(컨소시엄으로서 우선협상대상자 선정 후 사업법인을 설립하는 경우에 한함)으로서 단독 또는 컨소시엄 형태로 신청이 가능하며, 사업신청은 법인명의(컨소시엄의 경우 대표법인 명의)로 하여야 한다.  
-  - 공고일 현재 입찰참가자격이 제한 또는 정지·상실된 자(법인), 부도·파산처리 된 자(법인)는 본 사업에 참여할 수 없으며, 컨소시엄 구성원 또한 될 수 없다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.boseong.go.kr/www/open_administration/city_news/notification?idx=27211&amp;mode=view</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 사업신청자는 본 사업을 수행할 능력이 있는 법인 또는 설립예정법인(컨소시엄으로서 우선협상대상자 선정 후 사업법인을 설립하는 경우에 한함)으로서 단독 또는 컨소시엄 형태로 신청이 가능하며, 사업신청은 법인명의(컨소시엄의 경우 대표법인 명의)로 하여야 한다.  
+- 공고일 현재 입찰참가자격이 제한 또는 정지·상실된 자(법인), 부도·파산처리 된 자(법인)는 본 사업에 참여할 수 없으며, 컨소시엄 구성원 또한 될 수 없다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1915,7 +1915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2012,6 +2012,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2361,9 +2364,9 @@
   </sheetPr>
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="O1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2476,8 +2479,8 @@
       <c r="N2" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="O2" s="16" t="s">
-        <v>331</v>
+      <c r="O2" s="33" t="s">
+        <v>332</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>329</v>
@@ -2486,7 +2489,7 @@
         <v>330</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T2" s="31"/>
     </row>

--- a/concerns.xlsx
+++ b/concerns.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woomi\Documents\GitHub\wminfra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3121DD4A-9578-4FD0-A501-3618B1D2E52A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1D086-69F0-43B2-8562-AE23F5665B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="concerns" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">concerns!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">concerns!$A$1:$Q$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">concerns!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="341">
   <si>
     <t>'21-01-29</t>
   </si>
@@ -1738,6 +1738,42 @@
   <si>
     <t>- 사업신청자는 본 사업을 수행할 능력이 있는 법인 또는 설립예정법인(컨소시엄으로서 우선협상대상자 선정 후 사업법인을 설립하는 경우에 한함)으로서 단독 또는 컨소시엄 형태로 신청이 가능하며, 사업신청은 법인명의(컨소시엄의 경우 대표법인 명의)로 하여야 한다.  
 - 공고일 현재 입찰참가자격이 제한 또는 정지·상실된 자(법인), 부도·파산처리 된 자(법인)는 본 사업에 참여할 수 없으며, 컨소시엄 구성원 또한 될 수 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해선 미건설선 양양 인구정차장부지 개발사업 민간제안 공모</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가철도공단 공고 제2021 - 116호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-1-3~4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-3-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 국가철도공단(자산개발부) 정범 부장 042)607-4222, 최효은 사원 042)607-4228</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 양양군 현남면 시변리 16-1 일원 72필지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최장 30년 동안 점용허가를 받아 개발시설 건설 및 운영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 부지형상(폭, 길이)
+  ㆍ(①부지) 폭 : 약 8~70m, 길이 : 약 730m
+  ㆍ(②부지) 폭 : 약 10~53m, 길이 : 약 270m
+ - 기타
+  ㆍ①부지↔②부지 진입도로 : 국도 7호선 아래 폭 약 3.5m 터널</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2362,11 +2398,11 @@
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2444,7 +2480,7 @@
     </row>
     <row r="2" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>320</v>
@@ -2452,10 +2488,10 @@
       <c r="C2" s="11"/>
       <c r="D2" s="14"/>
       <c r="E2" s="11" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="11" t="s">
@@ -2465,29 +2501,27 @@
         <v>28</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="O2" s="33" t="s">
         <v>332</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>330</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="Q2" s="16"/>
       <c r="R2" s="27" t="s">
         <v>331</v>
       </c>
@@ -2495,340 +2529,335 @@
     </row>
     <row r="3" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>320</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11" t="s">
+        <v>322</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>309</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="11" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L3" s="29" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>316</v>
+        <v>327</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>332</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="T3" s="31"/>
     </row>
     <row r="4" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11" t="s">
-        <v>293</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="14"/>
+        <v>308</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>310</v>
+      </c>
       <c r="I4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="T4" s="31"/>
     </row>
     <row r="5" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>280</v>
+        <v>292</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>283</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="14"/>
       <c r="I5" s="32" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>289</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K7" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L7" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N7" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q8" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R8" s="27" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+    <row r="9" spans="1:20" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>272</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>19</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>220</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>28</v>
@@ -2840,175 +2869,175 @@
         <v>232</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K10" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N10" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O10" s="18">
         <v>325742</v>
       </c>
-      <c r="P9" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R10" s="27" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="27" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>211</v>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>28</v>
+        <v>224</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>225</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>214</v>
+        <v>91</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>207</v>
+        <v>123</v>
+      </c>
+      <c r="R11" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>28</v>
@@ -3020,110 +3049,110 @@
         <v>28</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>50</v>
+        <v>218</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>28</v>
+      <c r="D14" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
+        <v>191</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>28</v>
@@ -3132,39 +3161,39 @@
         <v>28</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="P14" s="16" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>28</v>
@@ -3173,10 +3202,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>28</v>
@@ -3187,150 +3216,150 @@
       <c r="I15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>81</v>
+      <c r="J15" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="O15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>178</v>
+      <c r="D16" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>205</v>
+        <v>85</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="P16" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>93</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="13" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="N17" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>28</v>
@@ -3339,66 +3368,66 @@
         <v>179</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>28</v>
+        <v>195</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>277</v>
+        <v>93</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>100</v>
+      <c r="N18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>28</v>
+      <c r="D19" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>28</v>
@@ -3406,43 +3435,43 @@
       <c r="H19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>28</v>
+      <c r="I19" s="30" t="s">
+        <v>277</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>28</v>
+      <c r="N19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>28</v>
@@ -3451,10 +3480,10 @@
         <v>28</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>28</v>
@@ -3462,264 +3491,264 @@
       <c r="H20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="24" t="s">
-        <v>252</v>
+      <c r="I20" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>91</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>28</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>13</v>
+        <v>252</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>187</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O22" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>8</v>
-      </c>
       <c r="G23" s="10" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O23" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>166</v>
+        <v>8</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>146</v>
+        <v>203</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="O24" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>171</v>
@@ -3743,22 +3772,22 @@
         <v>204</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O25" s="18" t="s">
         <v>3</v>
@@ -3767,15 +3796,15 @@
         <v>45</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>171</v>
@@ -3789,8 +3818,8 @@
       <c r="E26" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>148</v>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>166</v>
@@ -3799,22 +3828,22 @@
         <v>204</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>48</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O26" s="18" t="s">
         <v>3</v>
@@ -3823,71 +3852,124 @@
         <v>45</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="D27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I28" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K28" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N28" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P27" s="16" t="s">
+      <c r="P28" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="Q28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R28" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="25"/>
-    </row>
-    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="4"/>
+    <row r="29" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="25"/>
     </row>
     <row r="33" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="4"/>
@@ -3895,45 +3977,50 @@
     <row r="34" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="4"/>
     </row>
+    <row r="35" spans="10:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId1" xr:uid="{8749754C-D06F-4182-9015-1706BD09C6E9}"/>
-    <hyperlink ref="R12" r:id="rId2" xr:uid="{393D85B4-37A2-4A65-A4E1-992051B2074A}"/>
-    <hyperlink ref="R15" r:id="rId3" xr:uid="{47250226-B039-4086-B943-BCA7118AFBFF}"/>
-    <hyperlink ref="R17" r:id="rId4" xr:uid="{F84835D5-37D5-46F7-8C98-D3091865206D}"/>
-    <hyperlink ref="R18" r:id="rId5" xr:uid="{D165C3A4-15C8-4BB2-B26E-E52A8CC43A2B}"/>
-    <hyperlink ref="R19" r:id="rId6" xr:uid="{99F963AF-FA6E-48B3-8334-5F689AFB1BE1}"/>
-    <hyperlink ref="R20" r:id="rId7" xr:uid="{E6E8869D-B14E-4062-A0B9-C9B3DD4DECB5}"/>
-    <hyperlink ref="R14" r:id="rId8" xr:uid="{F6A9A873-1427-427F-8023-3E0D9AD52A72}"/>
-    <hyperlink ref="R22" r:id="rId9" xr:uid="{92AF6F52-1633-4D03-9E58-E95225B23CDE}"/>
-    <hyperlink ref="R16" r:id="rId10" xr:uid="{41B2504C-B510-43D6-A55D-18D4ABC04227}"/>
-    <hyperlink ref="R23" r:id="rId11" xr:uid="{9F3872E6-FA31-41A2-B24F-5EC08434648B}"/>
-    <hyperlink ref="R21" r:id="rId12" xr:uid="{26263C87-1504-4466-A46A-E62F7FAB6CA0}"/>
-    <hyperlink ref="R26" r:id="rId13" xr:uid="{1322ED43-DB66-4CDF-AAE4-7356999B9D7F}"/>
-    <hyperlink ref="R24" r:id="rId14" xr:uid="{1B761EDE-D72D-4D85-9E23-02E08A3321B7}"/>
-    <hyperlink ref="R25" r:id="rId15" xr:uid="{48D2F627-24D2-497C-AACE-0E7D829FDFF4}"/>
-    <hyperlink ref="R27" r:id="rId16" xr:uid="{A460BCC4-AE3D-4F0B-AC44-4B0027D8E9D7}"/>
-    <hyperlink ref="R11" r:id="rId17" xr:uid="{F5D075A0-0131-4788-B696-D7BF3D5B7CB4}"/>
-    <hyperlink ref="R9" r:id="rId18" xr:uid="{06B3A888-408C-46F2-9C7B-5A1B3AA7B236}"/>
-    <hyperlink ref="R10" r:id="rId19" xr:uid="{1F4594C3-ABD0-43A4-983E-4B0C6A5FDDD2}"/>
-    <hyperlink ref="R7" r:id="rId20" xr:uid="{3572083B-1896-48FE-8F4D-1E07D6DB2728}"/>
-    <hyperlink ref="R6" r:id="rId21" xr:uid="{D2259783-70F5-4E97-88EC-B7935D282CFB}"/>
-    <hyperlink ref="R8" r:id="rId22" xr:uid="{2C37FEC1-19FD-4D8C-982C-AD3E8A810220}"/>
-    <hyperlink ref="R5" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
-    <hyperlink ref="R4" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
-    <hyperlink ref="R3" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
+    <hyperlink ref="R14" r:id="rId1" xr:uid="{8749754C-D06F-4182-9015-1706BD09C6E9}"/>
+    <hyperlink ref="R13" r:id="rId2" xr:uid="{393D85B4-37A2-4A65-A4E1-992051B2074A}"/>
+    <hyperlink ref="R16" r:id="rId3" xr:uid="{47250226-B039-4086-B943-BCA7118AFBFF}"/>
+    <hyperlink ref="R18" r:id="rId4" xr:uid="{F84835D5-37D5-46F7-8C98-D3091865206D}"/>
+    <hyperlink ref="R19" r:id="rId5" xr:uid="{D165C3A4-15C8-4BB2-B26E-E52A8CC43A2B}"/>
+    <hyperlink ref="R20" r:id="rId6" xr:uid="{99F963AF-FA6E-48B3-8334-5F689AFB1BE1}"/>
+    <hyperlink ref="R21" r:id="rId7" xr:uid="{E6E8869D-B14E-4062-A0B9-C9B3DD4DECB5}"/>
+    <hyperlink ref="R15" r:id="rId8" xr:uid="{F6A9A873-1427-427F-8023-3E0D9AD52A72}"/>
+    <hyperlink ref="R23" r:id="rId9" xr:uid="{92AF6F52-1633-4D03-9E58-E95225B23CDE}"/>
+    <hyperlink ref="R17" r:id="rId10" xr:uid="{41B2504C-B510-43D6-A55D-18D4ABC04227}"/>
+    <hyperlink ref="R24" r:id="rId11" xr:uid="{9F3872E6-FA31-41A2-B24F-5EC08434648B}"/>
+    <hyperlink ref="R22" r:id="rId12" xr:uid="{26263C87-1504-4466-A46A-E62F7FAB6CA0}"/>
+    <hyperlink ref="R27" r:id="rId13" xr:uid="{1322ED43-DB66-4CDF-AAE4-7356999B9D7F}"/>
+    <hyperlink ref="R25" r:id="rId14" xr:uid="{1B761EDE-D72D-4D85-9E23-02E08A3321B7}"/>
+    <hyperlink ref="R26" r:id="rId15" xr:uid="{48D2F627-24D2-497C-AACE-0E7D829FDFF4}"/>
+    <hyperlink ref="R28" r:id="rId16" xr:uid="{A460BCC4-AE3D-4F0B-AC44-4B0027D8E9D7}"/>
+    <hyperlink ref="R12" r:id="rId17" xr:uid="{F5D075A0-0131-4788-B696-D7BF3D5B7CB4}"/>
+    <hyperlink ref="R10" r:id="rId18" xr:uid="{06B3A888-408C-46F2-9C7B-5A1B3AA7B236}"/>
+    <hyperlink ref="R11" r:id="rId19" xr:uid="{1F4594C3-ABD0-43A4-983E-4B0C6A5FDDD2}"/>
+    <hyperlink ref="R8" r:id="rId20" xr:uid="{3572083B-1896-48FE-8F4D-1E07D6DB2728}"/>
+    <hyperlink ref="R7" r:id="rId21" xr:uid="{D2259783-70F5-4E97-88EC-B7935D282CFB}"/>
+    <hyperlink ref="R9" r:id="rId22" xr:uid="{2C37FEC1-19FD-4D8C-982C-AD3E8A810220}"/>
+    <hyperlink ref="R6" r:id="rId23" xr:uid="{E9C19BB3-6998-4AFD-8091-77FDC0BDB557}"/>
+    <hyperlink ref="R5" r:id="rId24" xr:uid="{ED8FDB62-6005-4883-9959-8F96CCAEBC5D}"/>
+    <hyperlink ref="R4" r:id="rId25" xr:uid="{75E80B5C-9018-4C73-9C4B-8132348D52B9}"/>
+    <hyperlink ref="R3" r:id="rId26" xr:uid="{59C56DF9-31DC-4A3F-954E-87476D1F50BF}"/>
+    <hyperlink ref="R2" r:id="rId27" xr:uid="{2FF81D37-3DDE-477C-AEA9-D3A221DB98A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId26"/>
+  <pageSetup paperSize="8" scale="50" fitToHeight="0" orientation="landscape" r:id="rId28"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,굵게"&amp;20    개발사업공고_LIST (&amp;P / &amp;N)</oddHeader>
     <oddFooter>&amp;C&amp;G&amp;"-,굵게"&amp;K03+000 &amp;16토목사업팀</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="O1:P1 B1 K22 H1 O21:O26 K1 F1 E21 F21:F25 C26 C22 C24 C25" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:P1 B1 K23 H1 O22:O27 K1 F1 E22 F22:F26 C27 C23 C25 C26" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawingHF r:id="rId27"/>
+  <legacyDrawingHF r:id="rId29"/>
 </worksheet>
 </file>